--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -349,12 +349,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -349,32 +349,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B6"/>
+  <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>super-excel</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,35 +357,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C7"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>25</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>super-excel</t>
+    <t>super-excel2</t>
   </si>
 </sst>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>super-excel2</t>
+    <t>super-excel2 para pull</t>
   </si>
 </sst>
 </file>
